--- a/InputFiles/CCDI/TC02_CCDI_phs002371_Sex-Female_Diagnosis-9861-3-Acutemyeloidleuk-NOS_Filetype-fastq.xlsx
+++ b/InputFiles/CCDI/TC02_CCDI_phs002371_Sex-Female_Diagnosis-9861-3-Acutemyeloidleuk-NOS_Filetype-fastq.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\03-31-25\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\04-29-25\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517712CE-23B8-44D3-A23C-B211E8E64791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C24CEB-8DCC-4022-AF34-9D7E9CD1C652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,102 +63,6 @@
   </si>
   <si>
     <t>StudiesTab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WITH Study AS (SELECT
-    distinct std.study_name AS "Study_Name",
-    std.dbgap_accession AS "Study_ID",
-	std.study_status AS "Study_Status"
-FROM df_study std where std.dbgap_accession is not null),
-diagnosis as (select study_id, group_concat(diagcounts,' ') diagcount from (select 'phs002371' as study_id,  diagnosis||'('||d_count||')' as diagcounts from (select row_number() over() as row_num, dgn.diagnosis diagnosis,
-             count(*) d_count from df_diagnosis dgn group by dgn.diagnosis order by d_count desc) where row_num &lt;=5)),
-diagnosisas as (select study_id, group_concat(anatcounts,' ') anatcount from (select 'phs002371' as study_id,  anat||'('||as_count||')' as anatcounts from (select row_number() over() as row_num, dgn1.anatomic_site anat, count(*)
-               as_count from df_diagnosis dgn1 group by dgn1.anatomic_site order by as_count desc) where row_num &lt;=5)),
-participants as (select 'phs002371' as study_id, count(*) as p_count from df_participant prt),	
-sample as (select 'phs002371' as study_id, count(*) as s_count from df_sample),
-total_files as (select 'phs002371' as study_id, count(*) as file_count from 
-				(select type, file_name from df_sequencing_file),
-files as (select study_id, group_concat(filecounts,' ') file from 
-			(select 'phs002371' as study_id,  file_type||'('||filecount||')' as filecounts from 
-				(select row_number() over() as row_num, file_type, count(*) as filecount from     
-					select  file_type, file_name from df_sequencing_file 
-								group by file_type order by filecount desc) where row_num &lt;=5)),
-publications as (select 'phs002371' as study_id, group_concat(pubmed_id,';') pubmeds from df_publication),
-personnel as (select 'phs002371' as study_id, group_concat(personnel_name,';') name from df_study_personnel),
-funding as (select 'phs002371' as study, group_concat(grant_id,';') grant from (select distinct grant_id from df_study_funding))		
-select s.study_name as "Study Name",s.study_id as "Study ID" ,s.study_status as "Study Status",
-d.diagcount as "Diagnosis (Top 5)",da.anatcount as "Diagnosis Anatomic Site (Top 5)", 
-p.p_count as "Number of Participants",smp.s_count as "Number of Samples",tf.file_count as "Number of Files" ,
-f.file as "File Type (Top 5)", pub.pubmeds as "PubMed ID",pr.name as "Principal Investigator(s)", f.grant as "Grant ID"
-from study s
-left join diagnosis d on s.study_id = d.study_id
-left join diagnosisas da on s.study_id = da.study_id
-left join participants p on s.study_id = p.study_id
-left join sample smp on s.study_id = smp.study_id
-left join total_files tf on s.study_id = tf.study_id
-left join files f on s.study_id = f.study_id
-left join publications pub on s.study_id = pub.study_id
-left join personnel pr on s.study_id = pr.study_id
-left join funding f on s.study_id = f.study
-</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
-    COUNT(DISTINCT prt.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT seq.id) AS "Files"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id" AND prt.sex_at_birth = 'Female'
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON smp.id = dgn."sample.id" AND dgn.diagnosis = '9861/3 : Acute myeloid leukemia, NOS'
-LEFT JOIN 
-    df_sequencing_file seq ON smp.id = seq."sample.id" and seq.file_type = 'fastq'
-WHERE 
-    std.dbgap_accession = 'phs002371';</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with diagnosis1 as (
-select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
-diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
-diagnosis3 as (select "participant.id",  group_concat(anatomic_site,';') as ant_site from (select distinct "participant.id", anatomic_site from df_diagnosis where "participant.id" is not null ) group by "participant.id" ),
-treatment1 as (select trt."participant.id",trt.treatment_type from  df_treatment trt  where trt.treatment_type is not null)
-SELECT DISTINCT
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    COALESCE(prt.sex_at_birth, '') AS "Sex",
-    COALESCE(prt.race, '') AS "Race",
-	dgn2.diag AS "Diagnosis",
-	dgn3.ant_site AS "Diagnosis Anatomic Site",
-	   COALESCE(CASE WHEN dgn1.age = '-999' THEN 'Not Reported' ELSE dgn1.age END, "") AS "Age at Diagnosis (days)",
-	trt1.treatment_type AS "Treatment Type",
-	srv.last_known_survival_status AS "Last Known Survival Status"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    diagnosis1 dgn1 ON prt.id = dgn1."participant.id" 
-LEFT JOIN 
-    diagnosis2 dgn2 ON prt.id = dgn2."participant.id"
-LEFT JOIN 
-    diagnosis3 dgn3 ON prt.id = dgn3."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    treatment1 trt1 ON prt.id = trt1."participant.id"
-LEFT JOIN 
-    df_sequencing_file seq ON smp.id = seq."sample.id"
-WHERE 
-    std.dbgap_accession = 'phs002371' and prt.sex_at_birth='Female' and dgn.diagnosis='9861/3 : Acute myeloid leukemia, NOS' and seq.file_type ='fastq'
-ORDER BY 
-    prt.participant_id ASC </t>
   </si>
   <si>
     <t>TC02_CCDI_phs002371_Sex-Female_Diagnosis-9861-3-Acutemyeloidleuk-NOS_Filetype-fastq_TSVData.xlsx</t>
@@ -220,28 +124,209 @@
 </t>
   </si>
   <si>
-    <t>SELECT
+    <t xml:space="preserve">with diagnosis1 as (
+select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
+diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
+diagnosis3 as (select "participant.id",  group_concat(anatomic_site,';') as ant_site from (select distinct "participant.id", anatomic_site from df_diagnosis where "participant.id" is not null ) group by "participant.id" ),
+treatment1 as (select trt."participant.id",trt.treatment_type from  df_treatment trt  where trt.treatment_type is not null)
+SELECT DISTINCT
+    prt.participant_id AS "Participant ID",
+    std.dbgap_accession AS "Study ID",
+    COALESCE(prt.sex_at_birth, '') AS "Sex",
+    COALESCE(prt.race, '') AS "Race",
+	dgn2.diag AS "Diagnosis",
+	dgn3.ant_site AS "Diagnosis Anatomic Site",
+	   COALESCE(CASE WHEN dgn1.age = '-999' THEN 'Not Reported' ELSE dgn1.age END, "") AS "Age at Diagnosis (days)",
+	trt1.treatment_type AS "Treatment Type",
+	srv.last_known_survival_status AS "Last Known Survival Status"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    diagnosis1 dgn1 ON prt.id = dgn1."participant.id" 
+LEFT JOIN 
+    diagnosis2 dgn2 ON prt.id = dgn2."participant.id"
+LEFT JOIN 
+    diagnosis3 dgn3 ON prt.id = dgn3."participant.id"
+LEFT JOIN 
+    df_survival srv ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_diagnosis dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    treatment1 trt1 ON prt.id = trt1."participant.id"
+LEFT JOIN 
+    df_sample smp ON prt.id = smp."participant.id"
+LEFT JOIN 
+    df_sequencing_file seq ON smp.id = seq."sample.id"
+WHERE 
+    std.dbgap_accession = 'phs002371' and prt.sex_at_birth='Female' and dgn.diagnosis='9861/3 : Acute myeloid leukemia, NOS' and seq.file_type ='fastq'
+ORDER BY 
+    prt.participant_id ASC </t>
+  </si>
+  <si>
+    <t>WITH filtered_participants AS (
+    SELECT DISTINCT prt.id, prt.participant_id
+    FROM df_study std
+    JOIN df_participant prt ON std.id = prt."study.id"
+    JOIN df_diagnosis dgn ON prt.id = dgn."participant.id"
+    WHERE 
+        std.dbgap_accession = 'phs002371'
+        AND prt.sex_at_birth = 'Female'
+        AND dgn.diagnosis = '9861/3 : Acute myeloid leukemia, NOS'
+),
+-- Step 2: Get samples from those participants
+filtered_samples AS (
+    SELECT DISTINCT smp.id, smp.sample_id, smp.anatomic_site, smp."participant.id"
+    FROM df_sample smp
+    JOIN filtered_participants prt ON smp."participant.id" = prt.id
+),
+-- Step 3: Keep only samples that have at least one FASTQ file
+samples_with_fastq AS (
+    SELECT DISTINCT smp.*
+    FROM filtered_samples smp
+    JOIN df_sequencing_file seq ON seq."sample.id" = smp.id
+    WHERE seq.file_type = 'fastq'
+)
+-- Final output
+SELECT 
     smp.sample_id AS "Sample ID",
     prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
+    'phs002371' AS "Study ID",
     smp.anatomic_site AS "Sample Anatomic Site",
-    Null  AS "Sample Diagnosis"
+    NULL AS "Sample Diagnosis"
 FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_sequencing_file seq ON smp.id = seq."sample.id"
-WHERE 
-    std.dbgap_accession = 'phs002371' 
-    AND prt.sex_at_birth = 'Female'
-	and dgn.diagnosis= '9861/3 : Acute myeloid leukemia, NOS' and seq.file_type ='fastq'
+    samples_with_fastq smp
+JOIN filtered_participants prt ON smp."participant.id" = prt.id
 ORDER BY 
     smp.sample_id ASC;</t>
+  </si>
+  <si>
+    <t>WITH filtered_participants AS (
+    SELECT DISTINCT prt.id
+    FROM df_study std
+    JOIN df_participant prt ON std.id = prt."study.id"
+    JOIN df_diagnosis dgn ON prt.id = dgn."participant.id"
+    WHERE 
+        std.dbgap_accession = 'phs002371'
+        AND prt.sex_at_birth = 'Female'
+        AND dgn.diagnosis = '9861/3 : Acute myeloid leukemia, NOS'
+),
+filtered_samples AS (
+    SELECT DISTINCT smp.id
+    FROM df_sample smp
+    JOIN filtered_participants prt ON smp."participant.id" = prt.id
+),
+filtered_files AS (
+    SELECT DISTINCT seq.id
+    FROM df_sequencing_file seq
+    JOIN filtered_samples smp ON seq."sample.id" = smp.id
+    WHERE seq.file_type = 'fastq'
+)
+SELECT 
+    1 AS "Studies",
+    (SELECT COUNT(*) FROM filtered_participants) AS "Participants",
+    (SELECT COUNT(*) FROM filtered_samples) AS "Samples",
+    (SELECT COUNT(*) FROM filtered_files) AS "Files";</t>
+  </si>
+  <si>
+    <t>WITH Study AS (
+    SELECT DISTINCT
+        std.study_name AS "Study_Name",
+        std.dbgap_accession AS "Study_ID",
+        std.study_status AS "Study_Status"
+    FROM df_study std 
+    WHERE std.dbgap_accession IS NOT NULL
+),
+diagnosis AS (
+    SELECT study_id, group_concat(diagcounts, ' ') AS diagcount 
+    FROM (
+        SELECT 'phs002371' AS study_id, diagnosis || '(' || d_count || ')' AS diagcounts 
+        FROM (
+            SELECT row_number() OVER() AS row_num, dgn.diagnosis, COUNT(*) AS d_count 
+            FROM df_diagnosis dgn 
+            GROUP BY dgn.diagnosis 
+            ORDER BY d_count DESC
+        ) 
+        WHERE row_num &lt;= 5
+    )
+),
+diagnosisas AS (
+    SELECT study_id, group_concat(anatcounts, ' ') AS anatcount 
+    FROM (
+        SELECT 'phs002371' AS study_id, anat || '(' || as_count || ')' AS anatcounts 
+        FROM (
+            SELECT row_number() OVER() AS row_num, dgn1.anatomic_site AS anat, COUNT(*) AS as_count 
+            FROM df_diagnosis dgn1 
+            GROUP BY dgn1.anatomic_site 
+            ORDER BY as_count DESC
+        ) 
+        WHERE row_num &lt;= 5
+    )
+),
+participants AS (
+    SELECT 'phs002371' AS study_id, COUNT(*) AS p_count 
+    FROM df_participant prt
+),
+sample AS (
+    SELECT 'phs002371' AS study_id, COUNT(*) AS s_count 
+    FROM df_sample
+),
+total_files AS (
+    SELECT 'phs002371' AS study_id, COUNT(*) AS file_count 
+    FROM df_sequencing_file
+),
+files AS (
+    SELECT study_id, group_concat(filecounts, ' ') AS file 
+    FROM (
+        SELECT 'phs002371' AS study_id, file_type || '(' || filecount || ')' AS filecounts 
+        FROM (
+            SELECT row_number() OVER() AS row_num, file_type, COUNT(*) AS filecount 
+            FROM df_sequencing_file 
+            GROUP BY file_type 
+            ORDER BY filecount DESC
+        ) 
+        WHERE row_num &lt;= 5
+    )
+),
+publications AS (
+    SELECT 'phs002371' AS study_id, group_concat(pubmed_id, ';') AS pubmeds 
+    FROM df_publication
+),
+personnel AS (
+    SELECT 'phs002371' AS study_id, group_concat(personnel_name, ';') AS name 
+    FROM df_study_personnel
+),
+funding AS (
+    SELECT 'phs002371' AS study, group_concat(grant_id, ';') AS grant 
+    FROM (
+        SELECT DISTINCT grant_id 
+        FROM df_study_funding
+    )
+)
+SELECT 
+    s.study_name AS "Study Name",
+    s.study_id AS "Study ID",
+    s.study_status AS "Study Status",
+    d.diagcount AS "Diagnosis (Top 5)",
+    da.anatcount AS "Diagnosis Anatomic Site (Top 5)", 
+    p.p_count AS "Number of Participants",
+    smp.s_count AS "Number of Samples",
+    tf.file_count AS "Number of Files",
+    f.file AS "File Type (Top 5)",
+    pub.pubmeds AS "PubMed ID",
+    pr.name AS "Principal Investigator(s)",
+    fund.grant AS "Grant ID"
+FROM Study s
+LEFT JOIN diagnosis d ON s.study_id = d.study_id
+LEFT JOIN diagnosisas da ON s.study_id = da.study_id
+LEFT JOIN participants p ON s.study_id = p.study_id
+LEFT JOIN sample smp ON s.study_id = smp.study_id
+LEFT JOIN total_files tf ON s.study_id = tf.study_id
+LEFT JOIN files f ON s.study_id = f.study_id
+LEFT JOIN publications pub ON s.study_id = pub.study_id
+LEFT JOIN personnel pr ON s.study_id = pr.study_id
+LEFT JOIN funding fund ON s.study_id = fund.study;</t>
   </si>
 </sst>
 </file>
@@ -643,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,16 +762,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -694,16 +779,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="362.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -712,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2"/>
     </row>

--- a/InputFiles/CCDI/TC02_CCDI_phs002371_Sex-Female_Diagnosis-9861-3-Acutemyeloidleuk-NOS_Filetype-fastq.xlsx
+++ b/InputFiles/CCDI/TC02_CCDI_phs002371_Sex-Female_Diagnosis-9861-3-Acutemyeloidleuk-NOS_Filetype-fastq.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\04-29-25\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\05-01-25\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C24CEB-8DCC-4022-AF34-9D7E9CD1C652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1066D77-5A59-48DA-81EC-96BF5D4B17E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -166,43 +166,6 @@
   </si>
   <si>
     <t>WITH filtered_participants AS (
-    SELECT DISTINCT prt.id, prt.participant_id
-    FROM df_study std
-    JOIN df_participant prt ON std.id = prt."study.id"
-    JOIN df_diagnosis dgn ON prt.id = dgn."participant.id"
-    WHERE 
-        std.dbgap_accession = 'phs002371'
-        AND prt.sex_at_birth = 'Female'
-        AND dgn.diagnosis = '9861/3 : Acute myeloid leukemia, NOS'
-),
--- Step 2: Get samples from those participants
-filtered_samples AS (
-    SELECT DISTINCT smp.id, smp.sample_id, smp.anatomic_site, smp."participant.id"
-    FROM df_sample smp
-    JOIN filtered_participants prt ON smp."participant.id" = prt.id
-),
--- Step 3: Keep only samples that have at least one FASTQ file
-samples_with_fastq AS (
-    SELECT DISTINCT smp.*
-    FROM filtered_samples smp
-    JOIN df_sequencing_file seq ON seq."sample.id" = smp.id
-    WHERE seq.file_type = 'fastq'
-)
--- Final output
-SELECT 
-    smp.sample_id AS "Sample ID",
-    prt.participant_id AS "Participant ID",
-    'phs002371' AS "Study ID",
-    smp.anatomic_site AS "Sample Anatomic Site",
-    NULL AS "Sample Diagnosis"
-FROM 
-    samples_with_fastq smp
-JOIN filtered_participants prt ON smp."participant.id" = prt.id
-ORDER BY 
-    smp.sample_id ASC;</t>
-  </si>
-  <si>
-    <t>WITH filtered_participants AS (
     SELECT DISTINCT prt.id
     FROM df_study std
     JOIN df_participant prt ON std.id = prt."study.id"
@@ -327,6 +290,46 @@
 LEFT JOIN publications pub ON s.study_id = pub.study_id
 LEFT JOIN personnel pr ON s.study_id = pr.study_id
 LEFT JOIN funding fund ON s.study_id = fund.study;</t>
+  </si>
+  <si>
+    <t>WITH filtered_participants AS (
+    SELECT DISTINCT prt.id, prt.participant_id
+    FROM df_study std
+    JOIN df_participant prt ON std.id = prt."study.id"
+    JOIN df_diagnosis dgn ON prt.id = dgn."participant.id"
+    WHERE 
+        std.dbgap_accession = 'phs002371'
+        AND prt.sex_at_birth = 'Female'
+        AND dgn.diagnosis = '9861/3 : Acute myeloid leukemia, NOS'
+),
+-- Step 2: Get samples from those participants
+filtered_samples AS (
+    SELECT DISTINCT smp.id, smp.sample_id, smp.anatomic_site, smp."participant.id",smp.participant_age_at_collection, smp.sample_tumor_status,smp.tumor_classification
+    FROM df_sample smp
+    JOIN filtered_participants prt ON smp."participant.id" = prt.id
+),
+-- Step 3: Keep only samples that have at least one FASTQ file
+samples_with_fastq AS (
+    SELECT DISTINCT smp.*
+    FROM filtered_samples smp
+    JOIN df_sequencing_file seq ON seq."sample.id" = smp.id
+    WHERE seq.file_type = 'fastq'
+)
+-- Final output
+SELECT 
+    smp.sample_id AS "Sample ID",
+    prt.participant_id AS "Participant ID",
+    'phs002371' AS "Study ID",
+    smp.anatomic_site AS "Sample Anatomic Site",
+    COALESCE(CASE WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' ELSE smp.participant_age_at_collection END, 0) AS "Age at Sample Collection (days)",
+    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
+    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
+    NULL AS "Sample Diagnosis"
+FROM 
+    samples_with_fastq smp
+JOIN filtered_participants prt ON smp."participant.id" = prt.id
+ORDER BY 
+    smp.sample_id ASC;</t>
   </si>
 </sst>
 </file>
@@ -728,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -779,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -788,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
     </row>
